--- a/Makslip-2081-1st/Markslip-(8 NM).xlsx
+++ b/Makslip-2081-1st/Markslip-(8 NM).xlsx
@@ -463,7 +463,7 @@
     <t>नम्बर चढाइसकेपछि फाइल सेभ गरी यो लिङ्कमा थिच्नुस । यसपछि यही फाइल अपलोड गर्नुहोस् ।</t>
   </si>
   <si>
-    <t>https://bit.ly/3SrTnrm</t>
+    <t>https://bit.ly/4dncgUa</t>
   </si>
 </sst>
 </file>
@@ -946,7 +946,7 @@
   <dimension ref="A1:BI52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
